--- a/assets/excels/tcgumus.xlsx
+++ b/assets/excels/tcgumus.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tunacaglargumus/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcgumus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C27304-267E-3A4D-9321-86F979D92B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Import values" sheetId="1" r:id="rId1"/>
+    <sheet name="unit id relation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,37 +29,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ep value</t>
-  </si>
-  <si>
-    <t>datas</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Aluminiumbarren (sekundär / recyclet)</t>
+  </si>
+  <si>
+    <t>Antimon</t>
+  </si>
+  <si>
+    <t>Aluminiumbarren (primär)</t>
+  </si>
+  <si>
+    <t>Blei</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Chrom</t>
+  </si>
+  <si>
+    <t>Gallium</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Indium</t>
+  </si>
+  <si>
+    <t>Kobalt</t>
+  </si>
+  <si>
+    <t>Kupfer</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Mangan</t>
+  </si>
+  <si>
+    <t>Mekury</t>
+  </si>
+  <si>
+    <t>Messing</t>
+  </si>
+  <si>
+    <t>Molybdän</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Platin</t>
+  </si>
+  <si>
+    <t>Silber</t>
+  </si>
+  <si>
+    <t>Tantal</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Zink</t>
+  </si>
+  <si>
+    <t>Zinn</t>
+  </si>
+  <si>
+    <t>Fiberglas (Polyamidverstärkung)</t>
+  </si>
+  <si>
+    <t>HDPE (Granulat)</t>
+  </si>
+  <si>
+    <t>HDPE (recycletes Granulat)</t>
+  </si>
+  <si>
+    <t>LDPE (Granulat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nylon </t>
+  </si>
+  <si>
+    <t>Strom (CH, Mittelspannung)</t>
+  </si>
+  <si>
+    <t>Strom (EU, Mittelspannung)</t>
+  </si>
+  <si>
+    <t>Strom (EU, Niederspannung)</t>
+  </si>
+  <si>
+    <t>Strom (Welt, Mittelspannung)</t>
+  </si>
+  <si>
+    <t>Strom (Welt, Niederspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus KVA (CH, Mittelspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Photovoltaik (CH, a-Si-Laminat, Niederspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Photovoltaik (CH, a-Si-Panel, Niederspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Pumpspeicherkraftwerk (CH, Hochspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Wasserkraft im Alpenraum (CH, Hochspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Wasserkraft Laufwasser (CH, Hochspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Windkraft, importiert aus Deutschland (CH, Hochspannung)</t>
+  </si>
+  <si>
+    <t>Strom aus Windkraftanlagen an Land (CH, Hochspannung)</t>
+  </si>
+  <si>
+    <t>Wärme aus Dampf (in der chemischen Industrie (EU)</t>
+  </si>
+  <si>
+    <t>Wärme aus der KVA (CH</t>
+  </si>
+  <si>
+    <t>Wärme aus Erdgas (CH)</t>
+  </si>
+  <si>
+    <t>Wärme aus Erdwärmepumpe (CH)</t>
+  </si>
+  <si>
+    <t>Wärme aus Holzhackschnitzel aus dem Wald (CH)</t>
+  </si>
+  <si>
+    <t>Wärme aus Holzpellets (CH)</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Ammoniak (NH3)</t>
+  </si>
+  <si>
+    <t>Benzol</t>
+  </si>
+  <si>
+    <t>Dieselabgase</t>
+  </si>
+  <si>
+    <t>Dioxin und Furan</t>
+  </si>
+  <si>
+    <t>Feinstaub</t>
+  </si>
+  <si>
+    <t>Flüchtige organische Verbindungen ohne Methan (NMVOC)</t>
+  </si>
+  <si>
+    <t>Fluorchlorkohlenwasserstoff FCKWs)</t>
+  </si>
+  <si>
+    <t>Kohlendioxid (CO2)</t>
+  </si>
+  <si>
+    <t>Kohlenmonoxid (CO)</t>
+  </si>
+  <si>
+    <t>Lachgas (N2O)</t>
+  </si>
+  <si>
+    <t>Methan</t>
+  </si>
+  <si>
+    <t>PAKs Europa</t>
+  </si>
+  <si>
+    <t>Schwefeldioxid (SO2)</t>
+  </si>
+  <si>
+    <t>Schwefelhexafluorid (SF6)</t>
+  </si>
+  <si>
+    <t>Stickoxid (NOx)</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ep value per</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kJ   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MJ   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GJ   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kWh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MWh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GWh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mm   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cm   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> km   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mm²  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cm²  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m²   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mm³  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cm³  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m³   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nm³  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p   </t>
+  </si>
+  <si>
+    <t>unit ID (in psql DB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +376,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +405,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,53 +675,1186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="8.83203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>88936.181526240136</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>17833.282090519009</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>49950.70486271962</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>32343.6585684417</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>57665.517210854356</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50511.347867727731</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>553.75339336768411</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>91337.728165843451</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35098.752844501993</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>48963.441476796441</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20662.674613716357</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>46364.97155468772</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22028.003236203487</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>90336.510770523309</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4149.2632092411168</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>79183.536908561509</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17941.83056209192</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>26962.497888630056</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23741.20109476765</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>49438.976976713602</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>37667.912887489772</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9864.6238392735122</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>92292.287044119832</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>89304.685435000618</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>57928.558402835581</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2">
+        <v>67834.147526017347</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33711.829165918614</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>98329.037195087672</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>13473.864677490377</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>95334.755158605185</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>16394.857659457575</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <v>23520.838435043224</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2">
+        <v>81726.951210716463</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <v>87046.678906393456</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <v>66140.978594807704</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>34616.112266520104</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2">
+        <v>81079.771877919004</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7824.8480971284116</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2">
+        <v>85479.478325581265</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2">
+        <v>51553.474367233932</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2">
+        <v>76297.801882818021</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2">
+        <v>90941.430318889412</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2">
+        <v>93292.221648465187</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2">
+        <v>7056.5130119778159</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53827.498125786922</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="2">
+        <v>73175.111299747063</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2497.9460148104813</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="2">
+        <v>7296.7400442177641</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="2">
+        <v>57980.230963687638</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="2">
+        <v>25453.958796670518</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="2">
+        <v>25169.469443381709</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="2">
+        <v>49815.761018792669</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="2">
+        <v>47041.498631765542</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="2">
+        <v>34053.404049100624</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1065.7177620958969</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="2">
+        <v>60707.249832895963</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68101.185912879955</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="2">
+        <v>19123.869780193392</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="2">
+        <v>31264.997416485974</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="2">
+        <v>56498.057634640667</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="2">
+        <v>13122.393629380991</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="2">
+        <v>89417.076511769672</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="2">
+        <v>35285.327484079142</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="2">
+        <v>36965.310692874344</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="2">
+        <v>74412.131340807202</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="2">
+        <v>35749.37931569574</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82395502-AC93-AC43-BD64-4B572A332DAA}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
